--- a/data collection/output.xlsx
+++ b/data collection/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -487,16 +487,46 @@
       <c r="AB1" t="str">
         <v>Other Languages</v>
       </c>
+      <c r="AC1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Employment</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Education</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>Nationality</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>List entry to US: Date</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>List entry to US: i94</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>List entry to US: Place</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>List entry to US: Visa Category</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>List entry to US: Status Expire</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>Passport Expiration Date</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -572,17 +602,26 @@
       </c>
       <c r="AB2" t="str">
         <v/>
+      </c>
+      <c r="AC2" t="str">
+        <v>[]</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>[]</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>[]</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D3" t="str">
         <v/>
@@ -612,25 +651,13 @@
         <v/>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>Yangon</v>
       </c>
       <c r="N3" t="str">
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <v/>
-      </c>
-      <c r="P3" t="str">
-        <v/>
-      </c>
-      <c r="Q3" t="str">
-        <v/>
+        <v>Myanmar</v>
       </c>
       <c r="R3" t="str">
-        <v/>
-      </c>
-      <c r="S3" t="str">
-        <v/>
+        <v>Buddhism</v>
       </c>
       <c r="T3" t="str">
         <v/>
@@ -638,31 +665,43 @@
       <c r="U3" t="str">
         <v/>
       </c>
-      <c r="V3" t="str">
-        <v/>
-      </c>
-      <c r="W3" t="str">
-        <v/>
-      </c>
       <c r="X3" t="str">
         <v/>
       </c>
-      <c r="Y3" t="str">
-        <v/>
-      </c>
-      <c r="Z3" t="str">
-        <v/>
-      </c>
-      <c r="AA3" t="str">
-        <v/>
-      </c>
-      <c r="AB3" t="str">
+      <c r="AC3" t="str">
+        <v>[]</v>
+      </c>
+      <c r="AD3" t="str">
+        <v>[]</v>
+      </c>
+      <c r="AE3" t="str">
+        <v>[]</v>
+      </c>
+      <c r="AF3" t="str">
+        <v>Burmese</v>
+      </c>
+      <c r="AG3" t="str">
+        <v/>
+      </c>
+      <c r="AH3" t="str">
+        <v/>
+      </c>
+      <c r="AI3" t="str">
+        <v/>
+      </c>
+      <c r="AJ3" t="str">
+        <v/>
+      </c>
+      <c r="AK3" t="str">
+        <v/>
+      </c>
+      <c r="AL3" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AL3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data collection/output.xlsx
+++ b/data collection/output.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Client0000" sheetId="1" r:id="rId1"/>
+    <sheet name="Client0001" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +398,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Employment</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Education</v>
+      </c>
+    </row>
+    <row r="2"/>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,76 +473,43 @@
         <v>Country of Birth</v>
       </c>
       <c r="O1" t="str">
-        <v>Present Nationality</v>
+        <v>Nationality</v>
       </c>
       <c r="P1" t="str">
-        <v>Nationality at Birth</v>
+        <v>Religion</v>
       </c>
       <c r="Q1" t="str">
-        <v>Race</v>
+        <v>Last Leave country</v>
       </c>
       <c r="R1" t="str">
-        <v>Religion</v>
+        <v>List entry to US: Date</v>
       </c>
       <c r="S1" t="str">
-        <v>Immigration proceeding status</v>
+        <v>List entry to US: i94</v>
       </c>
       <c r="T1" t="str">
-        <v>Last Leave country</v>
+        <v>List entry to US: Place</v>
       </c>
       <c r="U1" t="str">
-        <v>I94</v>
+        <v>List entry to US: Visa Category</v>
       </c>
       <c r="V1" t="str">
-        <v>List entry to US</v>
+        <v>List entry to US: Status Expire</v>
       </c>
       <c r="W1" t="str">
-        <v>Passport Issue Country</v>
+        <v>Passport Number</v>
       </c>
       <c r="X1" t="str">
-        <v>Passport Number</v>
+        <v>Passport Expiration Date</v>
       </c>
       <c r="Y1" t="str">
-        <v>Expiration Date</v>
+        <v>Address</v>
       </c>
       <c r="Z1" t="str">
-        <v>Native Language</v>
+        <v>Employment</v>
       </c>
       <c r="AA1" t="str">
-        <v>Fluent in English</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>Other Languages</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>Address</v>
-      </c>
-      <c r="AD1" t="str">
-        <v>Employment</v>
-      </c>
-      <c r="AE1" t="str">
         <v>Education</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>Nationality</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>List entry to US: Date</v>
-      </c>
-      <c r="AH1" t="str">
-        <v>List entry to US: i94</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>List entry to US: Place</v>
-      </c>
-      <c r="AJ1" t="str">
-        <v>List entry to US: Visa Category</v>
-      </c>
-      <c r="AK1" t="str">
-        <v>List entry to US: Status Expire</v>
-      </c>
-      <c r="AL1" t="str">
-        <v>Passport Expiration Date</v>
       </c>
     </row>
     <row r="2">
@@ -556,16 +550,16 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>Yangon</v>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>Myanmar</v>
       </c>
       <c r="O2" t="str">
-        <v/>
+        <v>Burmese</v>
       </c>
       <c r="P2" t="str">
-        <v/>
+        <v>Buddhism</v>
       </c>
       <c r="Q2" t="str">
         <v/>
@@ -592,116 +586,18 @@
         <v/>
       </c>
       <c r="Y2" t="str">
-        <v/>
+        <v>[]</v>
       </c>
       <c r="Z2" t="str">
-        <v/>
+        <v>[]</v>
       </c>
       <c r="AA2" t="str">
-        <v/>
-      </c>
-      <c r="AB2" t="str">
-        <v/>
-      </c>
-      <c r="AC2" t="str">
         <v>[]</v>
-      </c>
-      <c r="AD2" t="str">
-        <v>[]</v>
-      </c>
-      <c r="AE2" t="str">
-        <v>[]</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="B3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v>Yangon</v>
-      </c>
-      <c r="N3" t="str">
-        <v>Myanmar</v>
-      </c>
-      <c r="R3" t="str">
-        <v>Buddhism</v>
-      </c>
-      <c r="T3" t="str">
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <v/>
-      </c>
-      <c r="X3" t="str">
-        <v/>
-      </c>
-      <c r="AC3" t="str">
-        <v>[]</v>
-      </c>
-      <c r="AD3" t="str">
-        <v>[]</v>
-      </c>
-      <c r="AE3" t="str">
-        <v>[]</v>
-      </c>
-      <c r="AF3" t="str">
-        <v>Burmese</v>
-      </c>
-      <c r="AG3" t="str">
-        <v/>
-      </c>
-      <c r="AH3" t="str">
-        <v/>
-      </c>
-      <c r="AI3" t="str">
-        <v/>
-      </c>
-      <c r="AJ3" t="str">
-        <v/>
-      </c>
-      <c r="AK3" t="str">
-        <v/>
-      </c>
-      <c r="AL3" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AL3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AA2"/>
   </ignoredErrors>
 </worksheet>
 </file>